--- a/datos.xlsx
+++ b/datos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://estudianteccr-my.sharepoint.com/personal/moises_solano_estudiantec_cr/Documents/SEMESTRE lll/ANALISIS DE ALGORITMOS/Caso_2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://estudianteccr-my.sharepoint.com/personal/moises_solano_estudiantec_cr/Documents/SEMESTRE lll/ANALISIS DE ALGORITMOS/GIT_HUB/CASO_2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="809" documentId="8_{17F9FAE0-DACD-4792-AFFE-F1028C724E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4FAEE67E-1A10-4849-9F33-52573942268A}"/>
+  <xr:revisionPtr revIDLastSave="839" documentId="8_{17F9FAE0-DACD-4792-AFFE-F1028C724E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE5A3786-5D8A-4E4B-99B2-734757057105}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{093EF965-C533-401E-8059-DC76B822AE2A}"/>
+    <workbookView xWindow="28680" yWindow="1860" windowWidth="21840" windowHeight="13290" xr2:uid="{093EF965-C533-401E-8059-DC76B822AE2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -61,9 +61,6 @@
     <t>iteraciones del for</t>
   </si>
   <si>
-    <t>n log n</t>
-  </si>
-  <si>
     <t>T(n+1)/T(n)</t>
   </si>
   <si>
@@ -96,14 +93,18 @@
   <si>
     <t>QUICK SORT ALGORITHM O(nlogn)</t>
   </si>
+  <si>
+    <t>n log2 n</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00000"/>
+    <numFmt numFmtId="168" formatCode="0.00000000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -150,7 +151,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -278,11 +279,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -295,6 +327,26 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -307,26 +359,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3663,8 +3700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8731F27A-B330-4AE9-A777-CFB0708F171B}">
   <dimension ref="C2:K81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="M65" sqref="M65"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3678,12 +3715,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="10"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
@@ -3696,7 +3733,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="3:6" x14ac:dyDescent="0.25">
@@ -3849,16 +3886,16 @@
         <v>0.30099999999999999</v>
       </c>
     </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C17" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C17" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C18" s="2" t="s">
         <v>2</v>
       </c>
@@ -3866,298 +3903,300 @@
         <v>3</v>
       </c>
       <c r="E18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C19" s="15">
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C19" s="11">
         <v>7000</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="32">
         <v>1027000</v>
       </c>
-      <c r="E19" s="18">
-        <f>C19 * LOG(C19,10)</f>
-        <v>26915.686280099795</v>
-      </c>
-      <c r="F19" s="15">
-        <f t="shared" ref="F19:G31" si="1">D20/D19</f>
+      <c r="E19" s="14">
+        <f>C19 * LOG(C19,2)</f>
+        <v>89411.974447037835</v>
+      </c>
+      <c r="F19" s="8">
+        <f t="shared" ref="F19:G30" si="1">D20/D19</f>
         <v>0.96981499513145086</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="35">
         <f>E20/E19</f>
         <v>1.1600937672921849</v>
       </c>
     </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C20" s="16">
+    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C20" s="12">
         <v>8000</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D20" s="33">
         <v>996000</v>
       </c>
-      <c r="E20" s="19">
-        <f t="shared" ref="E20:E31" si="2">C20 * LOG(C20,10)</f>
-        <v>31224.719895935548</v>
-      </c>
-      <c r="F20" s="16">
+      <c r="E20" s="15">
+        <f t="shared" ref="E20:E31" si="2">C20 * LOG(C20,2)</f>
+        <v>103726.2742772967</v>
+      </c>
+      <c r="F20" s="9">
         <f t="shared" si="1"/>
         <v>1.0030120481927711</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G20" s="36">
         <f>E21/E20</f>
         <v>1.1397438537018345</v>
       </c>
     </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C21" s="16">
+    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C21" s="12">
         <v>9000</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="33">
         <v>999000</v>
       </c>
-      <c r="E21" s="19">
+      <c r="E21" s="15">
         <f t="shared" si="2"/>
-        <v>35588.182584953924</v>
-      </c>
-      <c r="F21" s="16">
+        <v>118221.38357493961</v>
+      </c>
+      <c r="F21" s="9">
         <f t="shared" si="1"/>
         <v>1.997997997997998</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G21" s="36">
         <f t="shared" si="1"/>
-        <v>1.1239686068406123</v>
-      </c>
-    </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C22" s="16">
+        <v>1.1239686068406121</v>
+      </c>
+      <c r="H21" s="27"/>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C22" s="12">
         <v>10000</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D22" s="33">
         <v>1996000</v>
       </c>
-      <c r="E22" s="19">
-        <f t="shared" si="2"/>
-        <v>40000</v>
-      </c>
-      <c r="F22" s="16">
+      <c r="E22" s="15">
+        <f>C22 * LOG(C22,2)</f>
+        <v>132877.1237954945</v>
+      </c>
+      <c r="F22" s="9">
         <f>D23/D22</f>
         <v>0.99799599198396793</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G22" s="36">
         <f t="shared" si="1"/>
         <v>1.1113829884185118</v>
       </c>
     </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C23" s="16">
+    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C23" s="12">
         <v>11000</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D23" s="33">
         <v>1992000</v>
       </c>
-      <c r="E23" s="19">
+      <c r="E23" s="15">
         <f t="shared" si="2"/>
-        <v>44455.31953674047</v>
-      </c>
-      <c r="F23" s="16">
-        <f t="shared" ref="F23:F31" si="3">D24/D23</f>
+        <v>147677.37493629323</v>
+      </c>
+      <c r="F23" s="9">
+        <f t="shared" ref="F23:F30" si="3">D24/D23</f>
         <v>1.0015060240963856</v>
       </c>
-      <c r="G23" s="13">
+      <c r="G23" s="36">
         <f t="shared" si="1"/>
         <v>1.1011095064138772</v>
       </c>
     </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C24" s="16">
+    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C24" s="12">
         <v>12000</v>
       </c>
-      <c r="D24" s="16">
+      <c r="D24" s="33">
         <v>1995000</v>
       </c>
-      <c r="E24" s="19">
+      <c r="E24" s="15">
         <f t="shared" si="2"/>
-        <v>48950.174952571491</v>
-      </c>
-      <c r="F24" s="16">
+        <v>162608.96142459891</v>
+      </c>
+      <c r="F24" s="9">
         <f t="shared" si="3"/>
         <v>1.0005012531328321</v>
       </c>
-      <c r="G24" s="13">
+      <c r="G24" s="36">
         <f t="shared" si="1"/>
         <v>1.0925653203856291</v>
       </c>
     </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C25" s="16">
+    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C25" s="12">
         <v>13000</v>
       </c>
-      <c r="D25" s="16">
+      <c r="D25" s="33">
         <v>1996000</v>
       </c>
-      <c r="E25" s="19">
+      <c r="E25" s="15">
         <f t="shared" si="2"/>
-        <v>53481.263579988867</v>
-      </c>
-      <c r="F25" s="16">
+        <v>177660.91203644132</v>
+      </c>
+      <c r="F25" s="9">
         <f t="shared" si="3"/>
         <v>0.99849699398797598</v>
       </c>
-      <c r="G25" s="13">
+      <c r="G25" s="36">
         <f t="shared" si="1"/>
-        <v>1.0853481876448103</v>
-      </c>
-    </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C26" s="16">
+        <v>1.0853481876448106</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C26" s="12">
         <v>14000</v>
       </c>
-      <c r="D26" s="16">
+      <c r="D26" s="33">
         <v>1993000</v>
       </c>
-      <c r="E26" s="19">
+      <c r="E26" s="15">
         <f t="shared" si="2"/>
-        <v>58045.792499495321</v>
-      </c>
-      <c r="F26" s="16">
+        <v>192823.9488940757</v>
+      </c>
+      <c r="F26" s="9">
         <f t="shared" si="3"/>
         <v>1.0015052684395385</v>
       </c>
-      <c r="G26" s="13">
+      <c r="G26" s="36">
         <f t="shared" si="1"/>
-        <v>1.0791715676270568</v>
+        <v>1.0791715676270566</v>
       </c>
       <c r="H26" s="6"/>
     </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C27" s="16">
+    <row r="27" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C27" s="12">
         <v>15000</v>
       </c>
-      <c r="D27" s="16">
+      <c r="D27" s="33">
         <v>1996000</v>
       </c>
-      <c r="E27" s="19">
+      <c r="E27" s="15">
         <f t="shared" si="2"/>
-        <v>62641.368885835218</v>
-      </c>
-      <c r="F27" s="16">
+        <v>208090.12320405911</v>
+      </c>
+      <c r="F27" s="9">
         <f t="shared" si="3"/>
         <v>1.497995991983968</v>
       </c>
-      <c r="G27" s="13">
+      <c r="G27" s="36">
         <f t="shared" si="1"/>
-        <v>1.0738258265889411</v>
-      </c>
-    </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C28" s="16">
+        <v>1.0738258265889413</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C28" s="12">
         <v>16000</v>
       </c>
-      <c r="D28" s="16">
+      <c r="D28" s="33">
         <v>2990000</v>
       </c>
-      <c r="E28" s="19">
+      <c r="E28" s="15">
         <f t="shared" si="2"/>
-        <v>67265.919722494786</v>
-      </c>
-      <c r="F28" s="16">
+        <v>223452.54855459341</v>
+      </c>
+      <c r="F28" s="9">
         <f t="shared" si="3"/>
         <v>1.0006688963210701</v>
       </c>
-      <c r="G28" s="13">
+      <c r="G28" s="36">
         <f t="shared" si="1"/>
-        <v>1.0691540673215574</v>
-      </c>
-    </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C29" s="16">
+        <v>1.0691540673215572</v>
+      </c>
+    </row>
+    <row r="29" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C29" s="12">
         <v>17000</v>
       </c>
-      <c r="D29" s="16">
+      <c r="D29" s="33">
         <v>2992000</v>
       </c>
-      <c r="E29" s="19">
+      <c r="E29" s="15">
         <f t="shared" si="2"/>
-        <v>71917.631663430657</v>
-      </c>
-      <c r="F29" s="16">
+        <v>238905.20114051129</v>
+      </c>
+      <c r="F29" s="9">
         <f t="shared" si="3"/>
         <v>1.000668449197861</v>
       </c>
-      <c r="G29" s="13">
+      <c r="G29" s="36">
         <f t="shared" si="1"/>
         <v>1.0650365330482259</v>
       </c>
-    </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C30" s="16">
+      <c r="I29" s="6"/>
+    </row>
+    <row r="30" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C30" s="12">
         <v>18000</v>
       </c>
-      <c r="D30" s="16">
+      <c r="D30" s="33">
         <v>2994000</v>
       </c>
-      <c r="E30" s="19">
+      <c r="E30" s="15">
         <f t="shared" si="2"/>
-        <v>76594.905091859502</v>
-      </c>
-      <c r="F30" s="16">
+        <v>254442.76714987922</v>
+      </c>
+      <c r="F30" s="9">
         <f t="shared" si="3"/>
         <v>0.99899799599198402</v>
       </c>
-      <c r="G30" s="13">
+      <c r="G30" s="36">
         <f t="shared" si="1"/>
-        <v>1.0613802356776325</v>
-      </c>
-    </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C31" s="17">
+        <v>1.0613802356776323</v>
+      </c>
+    </row>
+    <row r="31" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C31" s="13">
         <v>19000</v>
       </c>
-      <c r="D31" s="17">
+      <c r="D31" s="34">
         <v>2991000</v>
       </c>
-      <c r="E31" s="20">
+      <c r="E31" s="16">
         <f t="shared" si="2"/>
-        <v>81296.318418103736</v>
-      </c>
-      <c r="F31" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" s="14" t="s">
-        <v>18</v>
+        <v>270060.52416400774</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C34" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
+      <c r="C34" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
     </row>
     <row r="35" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C35" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="F35" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="G35" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="36" spans="3:7" x14ac:dyDescent="0.25">
@@ -4341,12 +4380,12 @@
       </c>
     </row>
     <row r="49" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="10"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="30"/>
     </row>
     <row r="50" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C50" s="2" t="s">
@@ -4363,162 +4402,162 @@
       </c>
     </row>
     <row r="51" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C51" s="24">
+      <c r="C51" s="20">
         <v>1000</v>
       </c>
-      <c r="D51" s="28">
+      <c r="D51" s="24">
         <v>0</v>
       </c>
-      <c r="E51" s="28">
+      <c r="E51" s="24">
         <f>C51-1</f>
         <v>999</v>
       </c>
-      <c r="F51" s="21">
+      <c r="F51" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C52" s="25">
+      <c r="C52" s="21">
         <v>2000</v>
       </c>
-      <c r="D52" s="29">
+      <c r="D52" s="25">
         <v>0</v>
       </c>
-      <c r="E52" s="29">
+      <c r="E52" s="25">
         <f t="shared" ref="E52:E60" si="5">C52-1</f>
         <v>1999</v>
       </c>
-      <c r="F52" s="22">
+      <c r="F52" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C53" s="26">
+      <c r="C53" s="22">
         <v>3000</v>
       </c>
-      <c r="D53" s="29">
+      <c r="D53" s="25">
         <v>0</v>
       </c>
-      <c r="E53" s="29">
+      <c r="E53" s="25">
         <f t="shared" si="5"/>
         <v>2999</v>
       </c>
-      <c r="F53" s="22">
+      <c r="F53" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C54" s="25">
+      <c r="C54" s="21">
         <v>4000</v>
       </c>
-      <c r="D54" s="29">
+      <c r="D54" s="25">
         <v>0</v>
       </c>
-      <c r="E54" s="29">
+      <c r="E54" s="25">
         <f t="shared" si="5"/>
         <v>3999</v>
       </c>
-      <c r="F54" s="22">
+      <c r="F54" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C55" s="26">
+      <c r="C55" s="22">
         <v>5000</v>
       </c>
-      <c r="D55" s="29">
+      <c r="D55" s="25">
         <v>0</v>
       </c>
-      <c r="E55" s="29">
+      <c r="E55" s="25">
         <f t="shared" si="5"/>
         <v>4999</v>
       </c>
-      <c r="F55" s="22">
+      <c r="F55" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C56" s="25">
+      <c r="C56" s="21">
         <v>6000</v>
       </c>
-      <c r="D56" s="29">
+      <c r="D56" s="25">
         <v>0</v>
       </c>
-      <c r="E56" s="29">
+      <c r="E56" s="25">
         <f t="shared" si="5"/>
         <v>5999</v>
       </c>
-      <c r="F56" s="22">
+      <c r="F56" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C57" s="26">
+      <c r="C57" s="22">
         <v>7000</v>
       </c>
-      <c r="D57" s="29">
+      <c r="D57" s="25">
         <v>0</v>
       </c>
-      <c r="E57" s="29">
+      <c r="E57" s="25">
         <f t="shared" si="5"/>
         <v>6999</v>
       </c>
-      <c r="F57" s="22">
+      <c r="F57" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C58" s="25">
+      <c r="C58" s="21">
         <v>8000</v>
       </c>
-      <c r="D58" s="29">
+      <c r="D58" s="25">
         <v>0</v>
       </c>
-      <c r="E58" s="29">
+      <c r="E58" s="25">
         <f t="shared" si="5"/>
         <v>7999</v>
       </c>
-      <c r="F58" s="22">
+      <c r="F58" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C59" s="26">
+      <c r="C59" s="22">
         <v>9000</v>
       </c>
-      <c r="D59" s="29">
+      <c r="D59" s="25">
         <v>0</v>
       </c>
-      <c r="E59" s="29">
+      <c r="E59" s="25">
         <f>C59-1</f>
         <v>8999</v>
       </c>
-      <c r="F59" s="22">
+      <c r="F59" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C60" s="27">
+      <c r="C60" s="23">
         <v>10000</v>
       </c>
-      <c r="D60" s="30">
+      <c r="D60" s="26">
         <v>0</v>
       </c>
-      <c r="E60" s="30">
+      <c r="E60" s="26">
         <f t="shared" si="5"/>
         <v>9999</v>
       </c>
-      <c r="F60" s="23">
+      <c r="F60" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C64" s="8" t="s">
+      <c r="C64" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="10"/>
+      <c r="D64" s="29"/>
+      <c r="E64" s="29"/>
+      <c r="F64" s="30"/>
     </row>
     <row r="65" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C65" s="1" t="s">
@@ -4531,7 +4570,7 @@
         <v>1</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="3:6" x14ac:dyDescent="0.25">
@@ -4695,7 +4734,7 @@
       </c>
     </row>
     <row r="81" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K81" s="31"/>
+      <c r="K81" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="5">
